--- a/Data/EC/NIT-8901002510.xlsx
+++ b/Data/EC/NIT-8901002510.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EE4B5F1-ECDD-410C-BF3A-379C502F822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{993247A6-525E-4AB7-9455-D675C48EBCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF879BBB-2536-4A15-97A3-BD3F4BDC002C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BD8515B1-9198-4AA7-8392-13CCBB2A0C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="146">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,87 @@
     <t>CC</t>
   </si>
   <si>
+    <t>71776977</t>
+  </si>
+  <si>
+    <t>JAIME ANDRES ESTRADA VASQUEZ</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
     <t>46369727</t>
   </si>
   <si>
@@ -74,382 +155,292 @@
     <t>1808</t>
   </si>
   <si>
-    <t>71776977</t>
-  </si>
-  <si>
-    <t>JAIME ANDRES ESTRADA VASQUEZ</t>
+    <t>30670136</t>
+  </si>
+  <si>
+    <t>ADRIANA ALEJANDRA ANAYA ANAYA</t>
+  </si>
+  <si>
+    <t>64696274</t>
+  </si>
+  <si>
+    <t>ORIANA PATRICIA MONTERROSA MEYER</t>
+  </si>
+  <si>
+    <t>72200525</t>
+  </si>
+  <si>
+    <t>JORGE ISAAC MOLINA TORRES</t>
+  </si>
+  <si>
+    <t>73101243</t>
+  </si>
+  <si>
+    <t>JORGE LUIS VILLADIEGO VILLADIEGO</t>
+  </si>
+  <si>
+    <t>91279293</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO CASTILLO SERRANO</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>1001946926</t>
+  </si>
+  <si>
+    <t>NATALIA JIMENEZ VILLARREAL</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>30670136</t>
-  </si>
-  <si>
-    <t>ADRIANA ALEJANDRA ANAYA ANAYA</t>
-  </si>
-  <si>
-    <t>73092351</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO AGUILERA VEGA</t>
-  </si>
-  <si>
-    <t>64696274</t>
-  </si>
-  <si>
-    <t>ORIANA PATRICIA MONTERROSA MEYER</t>
-  </si>
-  <si>
-    <t>72200525</t>
-  </si>
-  <si>
-    <t>JORGE ISAAC MOLINA TORRES</t>
-  </si>
-  <si>
-    <t>73101243</t>
-  </si>
-  <si>
-    <t>JORGE LUIS VILLADIEGO VILLADIEGO</t>
-  </si>
-  <si>
-    <t>91279293</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO CASTILLO SERRANO</t>
-  </si>
-  <si>
-    <t>1001946926</t>
-  </si>
-  <si>
-    <t>NATALIA JIMENEZ VILLARREAL</t>
-  </si>
-  <si>
-    <t>9154392</t>
-  </si>
-  <si>
-    <t>OSVALDO ORTIZ MORALES</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -548,7 +539,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -561,9 +554,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -763,23 +754,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,10 +798,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -863,7 +854,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881F8034-7843-A6B8-E79B-D8BE31E0F35A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E7C1EA-FD36-5045-39B0-88809093B34C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,8 +1205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FBA688-991D-4CA8-9FD2-F3DF8CB6F2AA}">
-  <dimension ref="B2:J187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC77933-C240-462B-A5A2-DBAA6B70B60B}">
+  <dimension ref="B2:J162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1239,7 +1230,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1284,7 +1275,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1316,12 +1307,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>28878602</v>
+        <v>22015470</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1332,17 +1323,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1369,13 +1360,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1392,10 +1383,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>141881</v>
+        <v>169577</v>
       </c>
       <c r="G16" s="18">
-        <v>3547017</v>
+        <v>4239430</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1406,13 +1397,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>169577</v>
@@ -1429,13 +1420,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>169577</v>
@@ -1452,13 +1443,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>169577</v>
@@ -1475,13 +1466,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>169577</v>
@@ -1498,13 +1489,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>169577</v>
@@ -1521,13 +1512,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>169577</v>
@@ -1544,13 +1535,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>169577</v>
@@ -1567,13 +1558,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>169577</v>
@@ -1590,13 +1581,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>169577</v>
@@ -1613,13 +1604,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>169577</v>
@@ -1636,13 +1627,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>169577</v>
@@ -1659,13 +1650,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>169577</v>
@@ -1682,13 +1673,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>169577</v>
@@ -1705,13 +1696,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>169577</v>
@@ -1728,13 +1719,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>169577</v>
@@ -1751,13 +1742,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>169577</v>
@@ -1774,13 +1765,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>169577</v>
@@ -1797,13 +1788,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>169577</v>
@@ -1820,13 +1811,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>169577</v>
@@ -1843,13 +1834,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>169577</v>
@@ -1866,13 +1857,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>169577</v>
@@ -1889,13 +1880,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>169577</v>
@@ -1912,13 +1903,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>169577</v>
@@ -1935,13 +1926,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>169577</v>
@@ -1958,19 +1949,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>169577</v>
+        <v>141881</v>
       </c>
       <c r="G41" s="18">
-        <v>4239430</v>
+        <v>3879401</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1981,13 +1972,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>169577</v>
@@ -2004,19 +1995,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>169577</v>
+        <v>201854</v>
       </c>
       <c r="G43" s="18">
-        <v>4239430</v>
+        <v>5046364</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2027,19 +2018,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>169577</v>
+        <v>201854</v>
       </c>
       <c r="G44" s="18">
-        <v>4239430</v>
+        <v>6815646</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2050,19 +2041,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
-        <v>169577</v>
+        <v>201854</v>
       </c>
       <c r="G45" s="18">
-        <v>4239430</v>
+        <v>5415112</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2073,19 +2064,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F46" s="18">
-        <v>169577</v>
+        <v>317825</v>
       </c>
       <c r="G46" s="18">
-        <v>4239430</v>
+        <v>17331659</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2096,19 +2087,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
-        <v>169577</v>
+        <v>95336</v>
       </c>
       <c r="G47" s="18">
-        <v>4239430</v>
+        <v>2639556</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2119,13 +2110,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F48" s="18">
         <v>169577</v>
@@ -2142,13 +2133,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F49" s="18">
         <v>169577</v>
@@ -2165,13 +2156,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F50" s="18">
         <v>169577</v>
@@ -2188,13 +2179,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F51" s="18">
         <v>169577</v>
@@ -2211,13 +2202,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F52" s="18">
         <v>169577</v>
@@ -2234,13 +2225,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F53" s="18">
         <v>169577</v>
@@ -2257,13 +2248,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F54" s="18">
         <v>169577</v>
@@ -2280,13 +2271,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F55" s="18">
         <v>169577</v>
@@ -2303,13 +2294,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F56" s="18">
         <v>169577</v>
@@ -2326,13 +2317,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F57" s="18">
         <v>169577</v>
@@ -2349,13 +2340,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F58" s="18">
         <v>169577</v>
@@ -2372,13 +2363,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F59" s="18">
         <v>169577</v>
@@ -2395,13 +2386,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F60" s="18">
         <v>169577</v>
@@ -2418,13 +2409,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F61" s="18">
         <v>169577</v>
@@ -2441,13 +2432,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F62" s="18">
         <v>169577</v>
@@ -2464,13 +2455,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F63" s="18">
         <v>169577</v>
@@ -2487,13 +2478,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F64" s="18">
         <v>169577</v>
@@ -2510,13 +2501,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F65" s="18">
         <v>169577</v>
@@ -2533,13 +2524,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F66" s="18">
         <v>169577</v>
@@ -2556,13 +2547,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F67" s="18">
         <v>169577</v>
@@ -2579,13 +2570,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F68" s="18">
         <v>169577</v>
@@ -2602,13 +2593,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F69" s="18">
         <v>169577</v>
@@ -2625,13 +2616,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F70" s="18">
         <v>169577</v>
@@ -2648,13 +2639,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F71" s="18">
         <v>169577</v>
@@ -2671,13 +2662,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F72" s="18">
         <v>169577</v>
@@ -2694,13 +2685,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F73" s="18">
         <v>169577</v>
@@ -2717,13 +2708,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F74" s="18">
         <v>169577</v>
@@ -2740,13 +2731,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F75" s="18">
         <v>169577</v>
@@ -2763,13 +2754,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F76" s="18">
         <v>169577</v>
@@ -2786,13 +2777,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F77" s="18">
         <v>169577</v>
@@ -2809,13 +2800,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F78" s="18">
         <v>169577</v>
@@ -2832,13 +2823,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F79" s="18">
         <v>169577</v>
@@ -2855,13 +2846,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F80" s="18">
         <v>169577</v>
@@ -2878,13 +2869,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F81" s="18">
         <v>169577</v>
@@ -2901,13 +2892,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F82" s="18">
         <v>169577</v>
@@ -2924,13 +2915,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F83" s="18">
         <v>169577</v>
@@ -2947,13 +2938,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F84" s="18">
         <v>169577</v>
@@ -2970,13 +2961,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F85" s="18">
         <v>169577</v>
@@ -2993,13 +2984,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F86" s="18">
         <v>169577</v>
@@ -3016,13 +3007,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F87" s="18">
         <v>169577</v>
@@ -3039,13 +3030,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F88" s="18">
         <v>169577</v>
@@ -3062,13 +3053,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F89" s="18">
         <v>169577</v>
@@ -3085,19 +3076,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F90" s="18">
-        <v>169577</v>
+        <v>7220</v>
       </c>
       <c r="G90" s="18">
-        <v>4239430</v>
+        <v>5415112</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3108,13 +3099,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F91" s="18">
         <v>169577</v>
@@ -3131,13 +3122,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F92" s="18">
         <v>169577</v>
@@ -3154,13 +3145,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F93" s="18">
         <v>169577</v>
@@ -3177,13 +3168,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F94" s="18">
         <v>169577</v>
@@ -3200,13 +3191,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F95" s="18">
         <v>169577</v>
@@ -3223,13 +3214,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F96" s="18">
         <v>169577</v>
@@ -3246,13 +3237,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F97" s="18">
         <v>169577</v>
@@ -3269,13 +3260,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F98" s="18">
         <v>169577</v>
@@ -3292,13 +3283,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F99" s="18">
         <v>169577</v>
@@ -3315,13 +3306,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F100" s="18">
         <v>169577</v>
@@ -3338,13 +3329,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F101" s="18">
         <v>169577</v>
@@ -3361,13 +3352,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F102" s="18">
         <v>169577</v>
@@ -3384,13 +3375,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F103" s="18">
         <v>169577</v>
@@ -3407,13 +3398,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F104" s="18">
         <v>169577</v>
@@ -3430,13 +3421,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F105" s="18">
         <v>169577</v>
@@ -3453,13 +3444,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F106" s="18">
         <v>169577</v>
@@ -3476,13 +3467,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F107" s="18">
         <v>169577</v>
@@ -3499,13 +3490,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F108" s="18">
         <v>169577</v>
@@ -3522,13 +3513,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F109" s="18">
         <v>169577</v>
@@ -3545,19 +3536,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F110" s="18">
-        <v>169577</v>
+        <v>91424</v>
       </c>
       <c r="G110" s="18">
-        <v>4239430</v>
+        <v>2285595</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3568,13 +3559,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F111" s="18">
         <v>169577</v>
@@ -3591,19 +3582,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F112" s="18">
-        <v>169577</v>
+        <v>91424</v>
       </c>
       <c r="G112" s="18">
-        <v>4239430</v>
+        <v>2285595</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3614,13 +3605,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F113" s="18">
         <v>169577</v>
@@ -3637,19 +3628,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F114" s="18">
-        <v>169577</v>
+        <v>91424</v>
       </c>
       <c r="G114" s="18">
-        <v>4239430</v>
+        <v>2285595</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3660,13 +3651,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F115" s="18">
         <v>169577</v>
@@ -3683,19 +3674,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F116" s="18">
-        <v>169577</v>
+        <v>91424</v>
       </c>
       <c r="G116" s="18">
-        <v>4239430</v>
+        <v>2285595</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3706,13 +3697,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F117" s="18">
         <v>169577</v>
@@ -3729,19 +3720,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F118" s="18">
-        <v>169577</v>
+        <v>91424</v>
       </c>
       <c r="G118" s="18">
-        <v>4239430</v>
+        <v>2285595</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3752,13 +3743,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F119" s="18">
         <v>169577</v>
@@ -3775,19 +3766,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>116</v>
       </c>
       <c r="F120" s="18">
-        <v>169577</v>
+        <v>91424</v>
       </c>
       <c r="G120" s="18">
-        <v>4239430</v>
+        <v>2285595</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3798,10 +3789,10 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>117</v>
@@ -3821,19 +3812,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F122" s="18">
-        <v>169577</v>
+        <v>91424</v>
       </c>
       <c r="G122" s="18">
-        <v>4239430</v>
+        <v>2285595</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3844,13 +3835,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F123" s="18">
         <v>169577</v>
@@ -3867,19 +3858,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F124" s="18">
-        <v>169577</v>
+        <v>91424</v>
       </c>
       <c r="G124" s="18">
-        <v>4239430</v>
+        <v>2285595</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3890,13 +3881,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F125" s="18">
         <v>169577</v>
@@ -3913,19 +3904,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="F126" s="18">
-        <v>201854</v>
+        <v>91424</v>
       </c>
       <c r="G126" s="18">
-        <v>5046364</v>
+        <v>2285595</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3936,19 +3927,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="F127" s="18">
-        <v>193703</v>
+        <v>169577</v>
       </c>
       <c r="G127" s="18">
-        <v>4842575</v>
+        <v>4239430</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3959,19 +3950,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="F128" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G128" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3982,19 +3973,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F129" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G129" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4005,19 +3996,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="F130" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G130" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4028,19 +4019,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F131" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G131" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4051,19 +4042,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F132" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G132" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4074,19 +4065,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F133" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G133" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4097,19 +4088,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="F134" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G134" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4120,19 +4111,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="F135" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G135" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4143,19 +4134,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="F136" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G136" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4166,19 +4157,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F137" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G137" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4189,19 +4180,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F138" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G138" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4212,19 +4203,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D139" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F139" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G139" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4235,19 +4226,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D140" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F140" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G140" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4258,19 +4249,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E141" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F141" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G141" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4281,19 +4272,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D142" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E142" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E142" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F142" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G142" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4304,19 +4295,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="F143" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G143" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4327,19 +4318,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="F144" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G144" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4350,19 +4341,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="F145" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G145" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4373,19 +4364,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="F146" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G146" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4396,19 +4387,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="F147" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G147" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4419,19 +4410,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="F148" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G148" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4442,19 +4433,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="F149" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G149" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4465,19 +4456,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="F150" s="18">
-        <v>272626</v>
+        <v>91424</v>
       </c>
       <c r="G150" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4488,19 +4479,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="F151" s="18">
-        <v>272626</v>
+        <v>169577</v>
       </c>
       <c r="G151" s="18">
-        <v>6815646</v>
+        <v>4239430</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4511,19 +4502,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F152" s="18">
-        <v>201854</v>
+        <v>91424</v>
       </c>
       <c r="G152" s="18">
-        <v>6815646</v>
+        <v>2285595</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4534,19 +4525,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="F153" s="18">
-        <v>7220</v>
+        <v>169577</v>
       </c>
       <c r="G153" s="18">
-        <v>6003691</v>
+        <v>4239430</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4557,19 +4548,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F154" s="18">
-        <v>201854</v>
+        <v>91424</v>
       </c>
       <c r="G154" s="18">
-        <v>6003691</v>
+        <v>2285595</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4580,650 +4571,75 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="F155" s="18">
-        <v>317825</v>
+        <v>169577</v>
       </c>
       <c r="G155" s="18">
-        <v>11350867</v>
+        <v>4239430</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
       <c r="J155" s="20"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="18">
-        <v>95336</v>
-      </c>
-      <c r="G156" s="18">
-        <v>2383408</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B157" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="16" t="s">
+      <c r="B156" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E156" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D157" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" s="18">
+      <c r="F156" s="24">
         <v>91424</v>
       </c>
-      <c r="G157" s="18">
+      <c r="G156" s="24">
         <v>2285595</v>
       </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B158" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F158" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G158" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B159" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F159" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G159" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B160" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F160" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G160" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="26"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D161" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F161" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G161" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
+      <c r="B161" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C161" s="32"/>
+      <c r="H161" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B162" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F162" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G162" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B163" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F163" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G163" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B164" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F164" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G164" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
-    </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B165" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F165" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G165" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B166" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F166" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G166" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B167" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F167" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G167" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
-    </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F168" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G168" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
-    </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B169" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F169" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G169" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
-    </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B170" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F170" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G170" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
-    </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B171" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F171" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G171" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F172" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G172" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D173" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F173" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G173" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B174" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F174" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G174" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
-    </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B175" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F175" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G175" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
-    </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B176" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F176" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G176" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
-    </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D177" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F177" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G177" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F178" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G178" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
-    </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B179" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F179" s="18">
-        <v>91424</v>
-      </c>
-      <c r="G179" s="18">
-        <v>2285595</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
-    </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B180" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F180" s="18">
-        <v>193703</v>
-      </c>
-      <c r="G180" s="18">
-        <v>4842575</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
-    </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B181" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D181" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E181" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F181" s="24">
-        <v>193703</v>
-      </c>
-      <c r="G181" s="24">
-        <v>4842575</v>
-      </c>
-      <c r="H181" s="25"/>
-      <c r="I181" s="25"/>
-      <c r="J181" s="26"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B186" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C186" s="32"/>
-      <c r="H186" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B187" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C187" s="32"/>
-      <c r="H187" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
+      <c r="B162" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" s="32"/>
+      <c r="H162" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="H187:J187"/>
-    <mergeCell ref="H186:J186"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="H161:J161"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
